--- a/20181开课总表614.xlsx
+++ b/20181开课总表614.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chouryokumoe/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chouryokumoe/Desktop/派课表20181/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4D4D22A8-FE5E-0646-AC19-745FF68D1E1C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1BD95647-708A-1F42-8ED8-8C7AB1DDF346}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19120" yWindow="2220" windowWidth="14480" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="二至四年级开课表" sheetId="2" r:id="rId1"/>
@@ -23,12 +23,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'二至四年级开课表 (备份)'!$A$2:$K$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="414">
   <si>
     <t>专业</t>
   </si>
@@ -1534,13 +1533,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2015软件工程</t>
-  </si>
-  <si>
-    <t>邹策千</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>java基础编程</t>
     <phoneticPr fontId="10" type="halfwidthKatakana" alignment="noControl"/>
   </si>
@@ -1559,9 +1551,6 @@
   <si>
     <t>数值分析实验</t>
     <phoneticPr fontId="10" type="halfwidthKatakana" alignment="noControl"/>
-  </si>
-  <si>
-    <t>概率论与数理统计</t>
   </si>
   <si>
     <t>哈斯</t>
@@ -1642,6 +1631,24 @@
     <rPh sb="0" eb="2">
       <t>qing ruan</t>
     </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015网络编程</t>
+  </si>
+  <si>
+    <t>2015网络编程</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>开不了</t>
+    <rPh sb="0" eb="2">
+      <t>kai bu liao</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                     </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1649,7 +1656,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1916,13 +1923,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -2103,7 +2103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2250,21 +2250,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -2456,7 +2441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2656,80 +2641,53 @@
     <xf numFmtId="0" fontId="30" fillId="29" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="12" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="12" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="12" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="12" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="13" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="62">
@@ -2798,6 +2756,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF2109F0"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3130,10 +3093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I203"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C207" sqref="C207"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -3150,20 +3113,20 @@
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="26">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="26">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -3192,7 +3155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="9" t="s">
         <v>296</v>
       </c>
@@ -3209,15 +3172,18 @@
         <v>48</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>286</v>
       </c>
       <c r="H3" s="54"/>
       <c r="I3" s="53"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="81" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="28" t="s">
         <v>167</v>
       </c>
@@ -3234,7 +3200,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G4" s="26">
         <v>35</v>
@@ -3242,7 +3208,7 @@
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
     </row>
-    <row r="5" spans="1:9" ht="26">
+    <row r="5" spans="1:10" ht="26">
       <c r="A5" s="9" t="s">
         <v>294</v>
       </c>
@@ -3257,7 +3223,7 @@
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="17" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>295</v>
@@ -3265,7 +3231,7 @@
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
     </row>
-    <row r="6" spans="1:9" ht="26">
+    <row r="6" spans="1:10" ht="26">
       <c r="A6" s="9" t="s">
         <v>294</v>
       </c>
@@ -3282,7 +3248,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>295</v>
@@ -3292,7 +3258,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="54" t="s">
         <v>391</v>
       </c>
@@ -3309,7 +3275,7 @@
         <v>48</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G7" s="11">
         <v>70</v>
@@ -3319,7 +3285,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="26">
+    <row r="8" spans="1:10" ht="26">
       <c r="A8" s="54" t="s">
         <v>164</v>
       </c>
@@ -3336,7 +3302,7 @@
         <v>43</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G8" s="11">
         <v>70</v>
@@ -3346,7 +3312,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="9" t="s">
         <v>166</v>
       </c>
@@ -3361,7 +3327,7 @@
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="17" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G9" s="11">
         <v>35</v>
@@ -3369,7 +3335,7 @@
       <c r="H9" s="53"/>
       <c r="I9" s="53"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="9" t="s">
         <v>166</v>
       </c>
@@ -3384,7 +3350,7 @@
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="17" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G10" s="11">
         <v>35</v>
@@ -3392,7 +3358,7 @@
       <c r="H10" s="53"/>
       <c r="I10" s="53"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="12" t="s">
         <v>93</v>
       </c>
@@ -3414,8 +3380,11 @@
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="53"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="81" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="12" t="s">
         <v>93</v>
       </c>
@@ -3432,7 +3401,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G12" s="12">
         <v>30</v>
@@ -3440,7 +3409,7 @@
       <c r="H12" s="55"/>
       <c r="I12" s="53"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="12" t="s">
         <v>105</v>
       </c>
@@ -3457,7 +3426,7 @@
         <v>48</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G13" s="12">
         <v>38</v>
@@ -3465,7 +3434,7 @@
       <c r="H13" s="55"/>
       <c r="I13" s="53"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="12" t="s">
         <v>93</v>
       </c>
@@ -3482,7 +3451,7 @@
         <v>32</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G14" s="12">
         <v>30</v>
@@ -3490,7 +3459,7 @@
       <c r="H14" s="55"/>
       <c r="I14" s="53"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="12" t="s">
         <v>105</v>
       </c>
@@ -3507,7 +3476,7 @@
         <v>32</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G15" s="12">
         <v>38</v>
@@ -3515,7 +3484,7 @@
       <c r="H15" s="55"/>
       <c r="I15" s="53"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="12" t="s">
         <v>291</v>
       </c>
@@ -3537,6 +3506,9 @@
       </c>
       <c r="H16" s="56"/>
       <c r="I16" s="53"/>
+      <c r="J16" s="81" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
@@ -6457,228 +6429,232 @@
       <c r="I128" s="63"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B129" s="9">
-        <v>199181</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D129" s="9" t="s">
+      <c r="A129" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B129" s="19">
+        <v>199909</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E129" s="24">
+        <v>16</v>
+      </c>
+      <c r="F129" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="G129" s="10">
+        <v>30</v>
+      </c>
+      <c r="H129" s="65"/>
+      <c r="I129" s="66"/>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B130" s="37">
+        <v>199915</v>
+      </c>
+      <c r="C130" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E130" s="39">
+        <v>16</v>
+      </c>
+      <c r="F130" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="G130" s="40">
+        <v>30</v>
+      </c>
+      <c r="H130" s="62"/>
+      <c r="I130" s="63"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B131" s="9">
+        <v>1901006</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E131" s="9">
+        <v>64</v>
+      </c>
+      <c r="F131" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="H131" s="54"/>
+      <c r="I131" s="54" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B132" s="9">
+        <v>1901006</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E132" s="9">
+        <v>64</v>
+      </c>
+      <c r="F132" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="G132" s="11">
+        <v>30</v>
+      </c>
+      <c r="H132" s="53"/>
+      <c r="I132" s="53"/>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B133" s="12">
+        <v>1901006</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D133" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E129" s="9">
-        <v>48</v>
-      </c>
-      <c r="F129" s="27" t="s">
-        <v>377</v>
-      </c>
-      <c r="G129" s="9">
-        <v>30</v>
-      </c>
-      <c r="H129" s="54"/>
-      <c r="I129" s="53"/>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B130" s="9">
-        <v>199182</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D130" s="9" t="s">
+      <c r="E133" s="12">
+        <v>64</v>
+      </c>
+      <c r="F133" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="G133" s="12">
+        <v>31</v>
+      </c>
+      <c r="H133" s="55"/>
+      <c r="I133" s="53"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B134" s="12">
+        <v>1901006</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D134" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E130" s="9">
+      <c r="E134" s="12">
+        <v>64</v>
+      </c>
+      <c r="F134" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="G134" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="H134" s="55"/>
+      <c r="I134" s="53"/>
+    </row>
+    <row r="135" spans="1:9" ht="26">
+      <c r="A135" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B135" s="9">
+        <v>1901006</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E135" s="9">
+        <v>64</v>
+      </c>
+      <c r="F135" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="H135" s="54"/>
+      <c r="I135" s="54" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B136" s="9">
+        <v>1901007</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E136" s="9">
         <v>32</v>
       </c>
-      <c r="F130" s="27" t="s">
-        <v>377</v>
-      </c>
-      <c r="G130" s="9">
-        <v>30</v>
-      </c>
-      <c r="H130" s="54"/>
-      <c r="I130" s="53"/>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B131" s="19">
-        <v>199909</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D131" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E131" s="24">
-        <v>16</v>
-      </c>
-      <c r="F131" s="42" t="s">
-        <v>376</v>
-      </c>
-      <c r="G131" s="10">
-        <v>30</v>
-      </c>
-      <c r="H131" s="65"/>
-      <c r="I131" s="66"/>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B132" s="37">
-        <v>199915</v>
-      </c>
-      <c r="C132" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D132" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E132" s="39">
-        <v>16</v>
-      </c>
-      <c r="F132" s="42" t="s">
-        <v>376</v>
-      </c>
-      <c r="G132" s="40">
-        <v>30</v>
-      </c>
-      <c r="H132" s="62"/>
-      <c r="I132" s="63"/>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="B133" s="9">
-        <v>1901006</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E133" s="9">
-        <v>64</v>
-      </c>
-      <c r="F133" s="27" t="s">
+      <c r="F136" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="G133" s="9" t="s">
+      <c r="G136" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="H133" s="54"/>
-      <c r="I133" s="54" t="s">
+      <c r="H136" s="54"/>
+      <c r="I136" s="54" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="9" t="s">
+    <row r="137" spans="1:9">
+      <c r="A137" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B134" s="9">
-        <v>1901006</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E134" s="9">
-        <v>64</v>
-      </c>
-      <c r="F134" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="G134" s="11">
-        <v>30</v>
-      </c>
-      <c r="H134" s="53"/>
-      <c r="I134" s="53"/>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="A135" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B135" s="12">
-        <v>1901006</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D135" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E135" s="12">
-        <v>64</v>
-      </c>
-      <c r="F135" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="G135" s="12">
-        <v>31</v>
-      </c>
-      <c r="H135" s="55"/>
-      <c r="I135" s="53"/>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="B136" s="12">
-        <v>1901006</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D136" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E136" s="12">
-        <v>64</v>
-      </c>
-      <c r="F136" s="42" t="s">
-        <v>381</v>
-      </c>
-      <c r="G136" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="H136" s="55"/>
-      <c r="I136" s="53"/>
-    </row>
-    <row r="137" spans="1:9" ht="26">
-      <c r="A137" s="9" t="s">
-        <v>289</v>
-      </c>
       <c r="B137" s="9">
-        <v>1901006</v>
+        <v>1901007</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>107</v>
+        <v>252</v>
       </c>
       <c r="D137" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E137" s="9">
-        <v>64</v>
-      </c>
-      <c r="F137" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="G137" s="9" t="s">
-        <v>290</v>
+        <v>32</v>
+      </c>
+      <c r="F137" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="G137" s="11">
+        <v>30</v>
       </c>
       <c r="H137" s="54"/>
       <c r="I137" s="54" t="s">
@@ -6686,193 +6662,189 @@
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="9" t="s">
-        <v>280</v>
+      <c r="A138" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="B138" s="9">
         <v>1901007</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>252</v>
+        <v>75</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E138" s="9">
         <v>32</v>
       </c>
-      <c r="F138" s="27" t="s">
-        <v>378</v>
-      </c>
-      <c r="G138" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="H138" s="54"/>
-      <c r="I138" s="54" t="s">
-        <v>230</v>
-      </c>
+      <c r="F138" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="G138" s="12">
+        <v>31</v>
+      </c>
+      <c r="H138" s="53"/>
+      <c r="I138" s="53"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B139" s="9">
+      <c r="A139" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B139" s="12">
         <v>1901007</v>
       </c>
-      <c r="C139" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E139" s="9">
+      <c r="C139" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E139" s="12">
         <v>32</v>
       </c>
-      <c r="F139" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="G139" s="11">
-        <v>30</v>
-      </c>
-      <c r="H139" s="54"/>
-      <c r="I139" s="54" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B140" s="9">
+      <c r="F139" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="G139" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="H139" s="55"/>
+      <c r="I139" s="53"/>
+    </row>
+    <row r="140" spans="1:9" ht="26">
+      <c r="A140" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B140" s="12">
         <v>1901007</v>
       </c>
-      <c r="C140" s="9" t="s">
+      <c r="C140" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D140" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E140" s="9">
+      <c r="D140" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E140" s="12">
         <v>32</v>
       </c>
-      <c r="F140" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="G140" s="12">
-        <v>31</v>
-      </c>
-      <c r="H140" s="53"/>
+      <c r="F140" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="H140" s="55"/>
       <c r="I140" s="53"/>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="12" t="s">
-        <v>278</v>
+        <v>106</v>
       </c>
       <c r="B141" s="12">
-        <v>1901007</v>
+        <v>1901028</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E141" s="12">
         <v>32</v>
       </c>
       <c r="F141" s="42" t="s">
-        <v>381</v>
-      </c>
-      <c r="G141" s="12" t="s">
-        <v>279</v>
+        <v>383</v>
+      </c>
+      <c r="G141" s="12">
+        <v>31</v>
       </c>
       <c r="H141" s="55"/>
       <c r="I141" s="53"/>
     </row>
-    <row r="142" spans="1:9" ht="26">
-      <c r="A142" s="9" t="s">
-        <v>289</v>
+    <row r="142" spans="1:9">
+      <c r="A142" s="12" t="s">
+        <v>278</v>
       </c>
       <c r="B142" s="12">
-        <v>1901007</v>
+        <v>1901028</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E142" s="12">
         <v>32</v>
       </c>
-      <c r="F142" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="G142" s="9" t="s">
-        <v>290</v>
+      <c r="F142" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="G142" s="12" t="s">
+        <v>279</v>
       </c>
       <c r="H142" s="55"/>
       <c r="I142" s="53"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B143" s="12">
-        <v>1901028</v>
-      </c>
-      <c r="C143" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="D143" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E143" s="12">
+      <c r="A143" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B143" s="18">
+        <v>1904006</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D143" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="E143" s="18">
+        <v>48</v>
+      </c>
+      <c r="F143" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="G143" s="22">
+        <v>35</v>
+      </c>
+      <c r="H143" s="53"/>
+      <c r="I143" s="53"/>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B144" s="18">
+        <v>1904007</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D144" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="E144" s="18">
         <v>32</v>
       </c>
-      <c r="F143" s="42" t="s">
-        <v>383</v>
-      </c>
-      <c r="G143" s="12">
-        <v>31</v>
-      </c>
-      <c r="H143" s="55"/>
-      <c r="I143" s="53"/>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="B144" s="12">
-        <v>1901028</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="D144" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E144" s="12">
-        <v>32</v>
-      </c>
-      <c r="F144" s="42" t="s">
-        <v>383</v>
-      </c>
-      <c r="G144" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="H144" s="55"/>
+      <c r="F144" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="G144" s="22">
+        <v>35</v>
+      </c>
+      <c r="H144" s="53"/>
       <c r="I144" s="53"/>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="20" t="s">
-        <v>161</v>
+      <c r="A145" s="9" t="s">
+        <v>274</v>
       </c>
       <c r="B145" s="18">
-        <v>1904006</v>
+        <v>1904008</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D145" s="18" t="s">
         <v>272</v>
@@ -6880,55 +6852,57 @@
       <c r="E145" s="18">
         <v>48</v>
       </c>
-      <c r="F145" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="G145" s="22">
-        <v>35</v>
+      <c r="F145" s="47" t="s">
+        <v>384</v>
+      </c>
+      <c r="G145" s="18" t="s">
+        <v>275</v>
       </c>
       <c r="H145" s="53"/>
       <c r="I145" s="53"/>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B146" s="18">
-        <v>1904007</v>
-      </c>
-      <c r="C146" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D146" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="E146" s="18">
-        <v>32</v>
+      <c r="A146" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B146" s="9">
+        <v>1904008</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E146" s="9">
+        <v>48</v>
       </c>
       <c r="F146" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="G146" s="22">
-        <v>35</v>
-      </c>
-      <c r="H146" s="53"/>
-      <c r="I146" s="53"/>
+        <v>385</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="H146" s="54"/>
+      <c r="I146" s="54" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="9" t="s">
         <v>274</v>
       </c>
       <c r="B147" s="18">
-        <v>1904008</v>
+        <v>1904009</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D147" s="18" t="s">
         <v>272</v>
       </c>
       <c r="E147" s="18">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F147" s="47" t="s">
         <v>384</v>
@@ -6944,22 +6918,22 @@
         <v>276</v>
       </c>
       <c r="B148" s="9">
-        <v>1904008</v>
+        <v>1904009</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D148" s="9" t="s">
         <v>81</v>
       </c>
       <c r="E148" s="9">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F148" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="G148" s="9" t="s">
-        <v>277</v>
+      <c r="G148" s="18" t="s">
+        <v>275</v>
       </c>
       <c r="H148" s="54"/>
       <c r="I148" s="54" t="s">
@@ -6967,155 +6941,153 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="B149" s="18">
-        <v>1904009</v>
-      </c>
-      <c r="C149" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="D149" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="E149" s="18">
-        <v>32</v>
-      </c>
-      <c r="F149" s="47" t="s">
-        <v>384</v>
-      </c>
-      <c r="G149" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="H149" s="53"/>
+      <c r="A149" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E149" s="12">
+        <v>48</v>
+      </c>
+      <c r="F149" s="50" t="s">
+        <v>386</v>
+      </c>
+      <c r="G149" s="12">
+        <v>30</v>
+      </c>
+      <c r="H149" s="55"/>
       <c r="I149" s="53"/>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="B150" s="9">
-        <v>1904009</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D150" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E150" s="9">
-        <v>32</v>
-      </c>
-      <c r="F150" s="27" t="s">
-        <v>385</v>
-      </c>
-      <c r="G150" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="H150" s="54"/>
-      <c r="I150" s="54" t="s">
-        <v>230</v>
-      </c>
+      <c r="A150" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E150" s="12">
+        <v>48</v>
+      </c>
+      <c r="F150" s="50" t="s">
+        <v>386</v>
+      </c>
+      <c r="G150" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="H150" s="55"/>
+      <c r="I150" s="53"/>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B151" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C151" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D151" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E151" s="12">
-        <v>48</v>
-      </c>
-      <c r="F151" s="50" t="s">
-        <v>386</v>
-      </c>
-      <c r="G151" s="12">
-        <v>30</v>
-      </c>
-      <c r="H151" s="55"/>
+      <c r="A151" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B151" s="23">
+        <v>199345</v>
+      </c>
+      <c r="C151" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D151" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E151" s="23">
+        <v>40</v>
+      </c>
+      <c r="F151" s="47" t="s">
+        <v>366</v>
+      </c>
+      <c r="G151" s="11">
+        <v>42</v>
+      </c>
+      <c r="H151" s="53"/>
       <c r="I151" s="53"/>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="B152" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C152" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D152" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E152" s="12">
-        <v>48</v>
-      </c>
-      <c r="F152" s="50" t="s">
-        <v>386</v>
-      </c>
-      <c r="G152" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="H152" s="55"/>
+      <c r="A152" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B152" s="23">
+        <v>199346</v>
+      </c>
+      <c r="C152" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D152" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E152" s="23">
+        <v>16</v>
+      </c>
+      <c r="F152" s="47" t="s">
+        <v>366</v>
+      </c>
+      <c r="G152" s="11">
+        <v>42</v>
+      </c>
+      <c r="H152" s="53"/>
       <c r="I152" s="53"/>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B153" s="23">
-        <v>199345</v>
-      </c>
-      <c r="C153" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D153" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E153" s="23">
+      <c r="A153" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B153" s="12">
+        <v>1901004</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E153" s="12">
         <v>40</v>
       </c>
-      <c r="F153" s="47" t="s">
-        <v>366</v>
-      </c>
-      <c r="G153" s="11">
-        <v>42</v>
-      </c>
-      <c r="H153" s="53"/>
+      <c r="F153" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="G153" s="12">
+        <v>31</v>
+      </c>
+      <c r="H153" s="55"/>
       <c r="I153" s="53"/>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B154" s="23">
-        <v>199346</v>
-      </c>
-      <c r="C154" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D154" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E154" s="23">
-        <v>16</v>
-      </c>
-      <c r="F154" s="47" t="s">
-        <v>366</v>
-      </c>
-      <c r="G154" s="11">
-        <v>42</v>
-      </c>
-      <c r="H154" s="53"/>
+      <c r="A154" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B154" s="12">
+        <v>1901004</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E154" s="12">
+        <v>40</v>
+      </c>
+      <c r="F154" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="G154" s="12">
+        <v>41</v>
+      </c>
+      <c r="H154" s="55"/>
       <c r="I154" s="53"/>
     </row>
     <row r="155" spans="1:9">
@@ -7123,16 +7095,16 @@
         <v>106</v>
       </c>
       <c r="B155" s="12">
-        <v>1901004</v>
+        <v>1901005</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>108</v>
+        <v>261</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E155" s="12">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F155" s="42" t="s">
         <v>367</v>
@@ -7148,16 +7120,16 @@
         <v>111</v>
       </c>
       <c r="B156" s="12">
-        <v>1901004</v>
+        <v>1901005</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>108</v>
+        <v>261</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E156" s="12">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F156" s="42" t="s">
         <v>367</v>
@@ -7169,53 +7141,53 @@
       <c r="I156" s="53"/>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B157" s="12">
-        <v>1901005</v>
-      </c>
-      <c r="C157" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="D157" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E157" s="12">
-        <v>32</v>
-      </c>
-      <c r="F157" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="G157" s="12">
-        <v>31</v>
-      </c>
-      <c r="H157" s="55"/>
+      <c r="A157" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B157" s="18">
+        <v>1902004</v>
+      </c>
+      <c r="C157" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D157" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E157" s="18">
+        <v>64</v>
+      </c>
+      <c r="F157" s="49" t="s">
+        <v>368</v>
+      </c>
+      <c r="G157" s="18">
+        <v>36</v>
+      </c>
+      <c r="H157" s="53"/>
       <c r="I157" s="53"/>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B158" s="12">
-        <v>1901005</v>
-      </c>
-      <c r="C158" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="D158" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E158" s="12">
-        <v>32</v>
-      </c>
-      <c r="F158" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="G158" s="12">
-        <v>41</v>
-      </c>
-      <c r="H158" s="55"/>
+      <c r="A158" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B158" s="18">
+        <v>1902004</v>
+      </c>
+      <c r="C158" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D158" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E158" s="18">
+        <v>64</v>
+      </c>
+      <c r="F158" s="49" t="s">
+        <v>368</v>
+      </c>
+      <c r="G158" s="22">
+        <v>35</v>
+      </c>
+      <c r="H158" s="53"/>
       <c r="I158" s="53"/>
     </row>
     <row r="159" spans="1:9">
@@ -7223,16 +7195,16 @@
         <v>144</v>
       </c>
       <c r="B159" s="18">
-        <v>1902004</v>
+        <v>1902005</v>
       </c>
       <c r="C159" s="18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D159" s="18" t="s">
         <v>81</v>
       </c>
       <c r="E159" s="18">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F159" s="49" t="s">
         <v>368</v>
@@ -7248,16 +7220,16 @@
         <v>154</v>
       </c>
       <c r="B160" s="18">
-        <v>1902004</v>
+        <v>1902005</v>
       </c>
       <c r="C160" s="18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D160" s="18" t="s">
         <v>81</v>
       </c>
       <c r="E160" s="18">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F160" s="49" t="s">
         <v>368</v>
@@ -7270,22 +7242,22 @@
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="9" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B161" s="18">
-        <v>1902005</v>
+        <v>1902006</v>
       </c>
       <c r="C161" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D161" s="18" t="s">
         <v>81</v>
       </c>
       <c r="E161" s="18">
-        <v>32</v>
-      </c>
-      <c r="F161" s="49" t="s">
-        <v>368</v>
+        <v>56</v>
+      </c>
+      <c r="F161" s="47" t="s">
+        <v>366</v>
       </c>
       <c r="G161" s="18">
         <v>36</v>
@@ -7295,22 +7267,22 @@
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="20" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B162" s="18">
-        <v>1902005</v>
+        <v>1902006</v>
       </c>
       <c r="C162" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D162" s="18" t="s">
         <v>81</v>
       </c>
       <c r="E162" s="18">
-        <v>32</v>
-      </c>
-      <c r="F162" s="49" t="s">
-        <v>368</v>
+        <v>56</v>
+      </c>
+      <c r="F162" s="47" t="s">
+        <v>369</v>
       </c>
       <c r="G162" s="22">
         <v>35</v>
@@ -7323,16 +7295,16 @@
         <v>160</v>
       </c>
       <c r="B163" s="18">
-        <v>1902006</v>
+        <v>1902007</v>
       </c>
       <c r="C163" s="18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D163" s="18" t="s">
         <v>81</v>
       </c>
       <c r="E163" s="18">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F163" s="47" t="s">
         <v>366</v>
@@ -7348,16 +7320,16 @@
         <v>161</v>
       </c>
       <c r="B164" s="18">
-        <v>1902006</v>
+        <v>1902007</v>
       </c>
       <c r="C164" s="18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D164" s="18" t="s">
         <v>81</v>
       </c>
       <c r="E164" s="18">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F164" s="47" t="s">
         <v>369</v>
@@ -7369,251 +7341,251 @@
       <c r="I164" s="53"/>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B165" s="18">
-        <v>1902007</v>
-      </c>
-      <c r="C165" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="D165" s="18" t="s">
+      <c r="A165" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B165" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C165" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D165" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E165" s="24">
+        <v>40</v>
+      </c>
+      <c r="F165" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="G165" s="10">
+        <v>30</v>
+      </c>
+      <c r="H165" s="56"/>
+      <c r="I165" s="53"/>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B166" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C166" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D166" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E166" s="24">
+        <v>32</v>
+      </c>
+      <c r="F166" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="G166" s="10">
+        <v>30</v>
+      </c>
+      <c r="H166" s="56"/>
+      <c r="I166" s="53"/>
+    </row>
+    <row r="167" spans="1:9" ht="26">
+      <c r="A167" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B167" s="9">
+        <v>1904203</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D167" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E165" s="18">
+      <c r="E167" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G167" s="9">
+        <v>35</v>
+      </c>
+      <c r="H167" s="54"/>
+      <c r="I167" s="54" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="26">
+      <c r="A168" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B168" s="9">
+        <v>1904215</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E168" s="9">
         <v>32</v>
       </c>
-      <c r="F165" s="47" t="s">
-        <v>366</v>
-      </c>
-      <c r="G165" s="18">
-        <v>36</v>
-      </c>
-      <c r="H165" s="53"/>
-      <c r="I165" s="53"/>
-    </row>
-    <row r="166" spans="1:9">
-      <c r="A166" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B166" s="18">
-        <v>1902007</v>
-      </c>
-      <c r="C166" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="D166" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E166" s="18">
-        <v>32</v>
-      </c>
-      <c r="F166" s="47" t="s">
-        <v>369</v>
-      </c>
-      <c r="G166" s="22">
+      <c r="F168" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G168" s="9">
         <v>35</v>
       </c>
-      <c r="H166" s="53"/>
-      <c r="I166" s="53"/>
-    </row>
-    <row r="167" spans="1:9">
-      <c r="A167" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B167" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C167" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D167" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E167" s="24">
-        <v>40</v>
-      </c>
-      <c r="F167" s="43" t="s">
-        <v>370</v>
-      </c>
-      <c r="G167" s="10">
-        <v>30</v>
-      </c>
-      <c r="H167" s="56"/>
-      <c r="I167" s="53"/>
-    </row>
-    <row r="168" spans="1:9">
-      <c r="A168" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B168" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C168" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D168" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E168" s="24">
-        <v>32</v>
-      </c>
-      <c r="F168" s="43" t="s">
-        <v>370</v>
-      </c>
-      <c r="G168" s="10">
-        <v>30</v>
-      </c>
-      <c r="H168" s="56"/>
-      <c r="I168" s="53"/>
+      <c r="H168" s="54"/>
+      <c r="I168" s="54" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="169" spans="1:9" ht="26">
       <c r="A169" s="9" t="s">
         <v>242</v>
       </c>
       <c r="B169" s="9">
-        <v>1904203</v>
+        <v>1904216</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E169" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
+      </c>
+      <c r="E169" s="9">
+        <v>32</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>247</v>
+        <v>388</v>
       </c>
       <c r="G169" s="9">
         <v>35</v>
       </c>
       <c r="H169" s="54"/>
       <c r="I169" s="54" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="26">
-      <c r="A170" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B170" s="9">
-        <v>1904215</v>
-      </c>
-      <c r="C170" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D170" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="E170" s="9">
-        <v>32</v>
-      </c>
-      <c r="F170" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="G170" s="9">
-        <v>35</v>
-      </c>
-      <c r="H170" s="54"/>
-      <c r="I170" s="54" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" ht="26">
-      <c r="A171" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B171" s="9">
-        <v>1904216</v>
-      </c>
-      <c r="C171" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="D171" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="E171" s="9">
-        <v>32</v>
-      </c>
-      <c r="F171" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="G171" s="9">
-        <v>35</v>
-      </c>
-      <c r="H171" s="54"/>
-      <c r="I171" s="54" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="26">
+      <c r="A170" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="B170" s="12">
+        <v>199915</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D170" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E170" s="12">
+        <v>16</v>
+      </c>
+      <c r="F170" s="48" t="s">
+        <v>359</v>
+      </c>
+      <c r="G170" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="H170" s="55"/>
+      <c r="I170" s="53"/>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B171" s="12">
+        <v>341922</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D171" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E171" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F171" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="G171" s="12">
+        <v>22</v>
+      </c>
+      <c r="H171" s="55"/>
+      <c r="I171" s="53"/>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="12" t="s">
-        <v>363</v>
+        <v>92</v>
       </c>
       <c r="B172" s="12">
-        <v>199915</v>
+        <v>341922</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E172" s="12">
-        <v>16</v>
+        <v>85</v>
+      </c>
+      <c r="E172" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="F172" s="48" t="s">
-        <v>359</v>
-      </c>
-      <c r="G172" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
+      </c>
+      <c r="G172" s="12">
+        <v>38</v>
       </c>
       <c r="H172" s="55"/>
       <c r="I172" s="53"/>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="12" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B173" s="12">
-        <v>341922</v>
+        <v>3419017</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E173" s="12" t="s">
-        <v>91</v>
+        <v>39</v>
+      </c>
+      <c r="E173" s="12">
+        <v>32</v>
       </c>
       <c r="F173" s="48" t="s">
-        <v>101</v>
+        <v>361</v>
       </c>
       <c r="G173" s="12">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H173" s="55"/>
       <c r="I173" s="53"/>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="12" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B174" s="12">
-        <v>341922</v>
+        <v>3419017</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E174" s="12" t="s">
-        <v>91</v>
+        <v>39</v>
+      </c>
+      <c r="E174" s="12">
+        <v>32</v>
       </c>
       <c r="F174" s="48" t="s">
         <v>360</v>
@@ -7626,16 +7598,16 @@
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="12" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B175" s="12">
         <v>3419017</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>104</v>
+        <v>265</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E175" s="12">
         <v>32</v>
@@ -7644,718 +7616,649 @@
         <v>361</v>
       </c>
       <c r="G175" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H175" s="55"/>
       <c r="I175" s="53"/>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="12" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B176" s="12">
         <v>3419017</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E176" s="12">
         <v>32</v>
       </c>
       <c r="F176" s="48" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G176" s="12">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H176" s="55"/>
       <c r="I176" s="53"/>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" ht="26">
       <c r="A177" s="12" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B177" s="12">
-        <v>3419017</v>
+        <v>3419018</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D177" s="12" t="s">
         <v>81</v>
       </c>
       <c r="E177" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F177" s="48" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G177" s="12">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H177" s="55"/>
       <c r="I177" s="53"/>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" ht="26">
       <c r="A178" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B178" s="12">
-        <v>3419017</v>
+        <v>3419018</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D178" s="12" t="s">
         <v>81</v>
       </c>
       <c r="E178" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F178" s="48" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G178" s="12">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H178" s="55"/>
       <c r="I178" s="53"/>
     </row>
-    <row r="179" spans="1:9" ht="26">
-      <c r="A179" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B179" s="12">
-        <v>3419018</v>
-      </c>
-      <c r="C179" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="D179" s="12" t="s">
+    <row r="179" spans="1:9">
+      <c r="A179" s="67" t="s">
+        <v>411</v>
+      </c>
+      <c r="B179" s="68">
+        <v>198903</v>
+      </c>
+      <c r="C179" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D179" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E179" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="F179" s="70" t="s">
+        <v>398</v>
+      </c>
+      <c r="G179" s="70">
+        <v>35</v>
+      </c>
+      <c r="H179" s="70"/>
+      <c r="I179" s="70"/>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="67" t="s">
+        <v>410</v>
+      </c>
+      <c r="B180" s="68">
+        <v>198907</v>
+      </c>
+      <c r="C180" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180" s="70">
+        <v>1</v>
+      </c>
+      <c r="E180" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="F180" s="70" t="s">
+        <v>398</v>
+      </c>
+      <c r="G180" s="70">
+        <v>35</v>
+      </c>
+      <c r="H180" s="70"/>
+      <c r="I180" s="70"/>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="67" t="s">
+        <v>410</v>
+      </c>
+      <c r="B181" s="68">
+        <v>199909</v>
+      </c>
+      <c r="C181" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D181" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E181" s="70">
+        <v>18</v>
+      </c>
+      <c r="F181" s="70" t="s">
+        <v>409</v>
+      </c>
+      <c r="G181" s="70">
+        <v>35</v>
+      </c>
+      <c r="H181" s="70"/>
+      <c r="I181" s="70"/>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="67" t="s">
+        <v>410</v>
+      </c>
+      <c r="B182" s="68">
+        <v>198902</v>
+      </c>
+      <c r="C182" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E182" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F182" s="70" t="s">
+        <v>398</v>
+      </c>
+      <c r="G182" s="70">
+        <v>35</v>
+      </c>
+      <c r="H182" s="70"/>
+      <c r="I182" s="70"/>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="67" t="s">
+        <v>410</v>
+      </c>
+      <c r="B183" s="68">
+        <v>199915</v>
+      </c>
+      <c r="C183" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="E183" s="70">
+        <v>18</v>
+      </c>
+      <c r="F183" s="70" t="s">
+        <v>409</v>
+      </c>
+      <c r="G183" s="70">
+        <v>35</v>
+      </c>
+      <c r="H183" s="70"/>
+      <c r="I183" s="70"/>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="70" t="s">
+        <v>178</v>
+      </c>
+      <c r="B184" s="71">
+        <v>1901036</v>
+      </c>
+      <c r="C184" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="D184" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="E184" s="70">
+        <v>32</v>
+      </c>
+      <c r="F184" s="70" t="s">
+        <v>404</v>
+      </c>
+      <c r="G184" s="70">
+        <v>51</v>
+      </c>
+      <c r="H184" s="70"/>
+      <c r="I184" s="70"/>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="70" t="s">
+        <v>178</v>
+      </c>
+      <c r="B185" s="72">
+        <v>1905035</v>
+      </c>
+      <c r="C185" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="D185" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="E179" s="12">
-        <v>18</v>
-      </c>
-      <c r="F179" s="48" t="s">
-        <v>362</v>
-      </c>
-      <c r="G179" s="12">
-        <v>41</v>
-      </c>
-      <c r="H179" s="55"/>
-      <c r="I179" s="53"/>
-    </row>
-    <row r="180" spans="1:9" ht="26">
-      <c r="A180" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B180" s="12">
-        <v>3419018</v>
-      </c>
-      <c r="C180" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D180" s="12" t="s">
+      <c r="E185" s="70">
+        <v>40</v>
+      </c>
+      <c r="F185" s="70" t="s">
+        <v>398</v>
+      </c>
+      <c r="G185" s="70">
+        <v>51</v>
+      </c>
+      <c r="H185" s="73"/>
+      <c r="I185" s="73"/>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="70" t="s">
+        <v>178</v>
+      </c>
+      <c r="B186" s="72">
+        <v>1905036</v>
+      </c>
+      <c r="C186" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="D186" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="E180" s="12">
-        <v>18</v>
-      </c>
-      <c r="F180" s="48" t="s">
-        <v>361</v>
-      </c>
-      <c r="G180" s="12">
-        <v>31</v>
-      </c>
-      <c r="H180" s="55"/>
-      <c r="I180" s="53"/>
-    </row>
-    <row r="181" spans="1:9">
-      <c r="A181" s="68" t="s">
+      <c r="E186" s="70">
+        <v>32</v>
+      </c>
+      <c r="F186" s="70" t="s">
+        <v>398</v>
+      </c>
+      <c r="G186" s="70">
+        <v>51</v>
+      </c>
+      <c r="H186" s="73"/>
+      <c r="I186" s="73"/>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="70" t="s">
+        <v>178</v>
+      </c>
+      <c r="B187" s="74">
+        <v>1905046</v>
+      </c>
+      <c r="C187" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="D187" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="E187" s="70">
+        <v>54</v>
+      </c>
+      <c r="F187" s="70" t="s">
+        <v>399</v>
+      </c>
+      <c r="G187" s="70">
+        <v>51</v>
+      </c>
+      <c r="H187" s="73"/>
+      <c r="I187" s="73"/>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="70" t="s">
+        <v>178</v>
+      </c>
+      <c r="B188" s="74">
+        <v>1905047</v>
+      </c>
+      <c r="C188" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="D188" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="E188" s="70">
+        <v>32</v>
+      </c>
+      <c r="F188" s="70" t="s">
+        <v>399</v>
+      </c>
+      <c r="G188" s="70">
+        <v>51</v>
+      </c>
+      <c r="H188" s="73"/>
+      <c r="I188" s="73"/>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="70" t="s">
+        <v>178</v>
+      </c>
+      <c r="B189" s="75">
+        <v>1905025</v>
+      </c>
+      <c r="C189" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="D189" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="E189" s="70">
+        <v>32</v>
+      </c>
+      <c r="F189" s="70" t="s">
+        <v>398</v>
+      </c>
+      <c r="G189" s="70">
+        <v>51</v>
+      </c>
+      <c r="H189" s="73" t="s">
+        <v>186</v>
+      </c>
+      <c r="I189" s="73"/>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="70" t="s">
+        <v>178</v>
+      </c>
+      <c r="B190" s="74">
+        <v>1905029</v>
+      </c>
+      <c r="C190" s="69" t="s">
+        <v>192</v>
+      </c>
+      <c r="D190" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="E190" s="70">
+        <v>48</v>
+      </c>
+      <c r="F190" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="G190" s="70">
+        <v>51</v>
+      </c>
+      <c r="H190" s="73"/>
+      <c r="I190" s="73"/>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="70" t="s">
+        <v>178</v>
+      </c>
+      <c r="B191" s="74">
+        <v>1905048</v>
+      </c>
+      <c r="C191" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="D191" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="E191" s="70">
+        <v>48</v>
+      </c>
+      <c r="F191" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="G191" s="70">
+        <v>51</v>
+      </c>
+      <c r="H191" s="73" t="s">
+        <v>186</v>
+      </c>
+      <c r="I191" s="73"/>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="70" t="s">
+        <v>403</v>
+      </c>
+      <c r="B192" s="74">
+        <v>1905048</v>
+      </c>
+      <c r="C192" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="D192" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="E192" s="70">
+        <v>48</v>
+      </c>
+      <c r="F192" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="G192" s="76">
+        <v>75</v>
+      </c>
+      <c r="H192" s="73" t="s">
+        <v>186</v>
+      </c>
+      <c r="I192" s="73"/>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="70" t="s">
+        <v>403</v>
+      </c>
+      <c r="B193" s="77">
+        <v>1901028</v>
+      </c>
+      <c r="C193" s="78" t="s">
         <v>393</v>
       </c>
-      <c r="B181" s="69">
-        <v>198903</v>
-      </c>
-      <c r="C181" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="D181" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="E181" s="72" t="s">
+      <c r="D193" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="E193" s="70">
+        <v>48</v>
+      </c>
+      <c r="F193" s="70" t="s">
+        <v>401</v>
+      </c>
+      <c r="G193" s="76">
+        <v>75</v>
+      </c>
+      <c r="H193" s="73" t="s">
+        <v>413</v>
+      </c>
+      <c r="I193" s="73"/>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="70" t="s">
+        <v>403</v>
+      </c>
+      <c r="B194" s="74">
+        <v>1901006</v>
+      </c>
+      <c r="C194" s="78" t="s">
+        <v>394</v>
+      </c>
+      <c r="D194" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="E194" s="70">
+        <v>75</v>
+      </c>
+      <c r="F194" s="70" t="s">
+        <v>402</v>
+      </c>
+      <c r="G194" s="76">
+        <v>75</v>
+      </c>
+      <c r="H194" s="73"/>
+      <c r="I194" s="73"/>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="70" t="s">
+        <v>403</v>
+      </c>
+      <c r="B195" s="74">
+        <v>1901007</v>
+      </c>
+      <c r="C195" s="69" t="s">
+        <v>395</v>
+      </c>
+      <c r="D195" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="E195" s="70">
+        <v>75</v>
+      </c>
+      <c r="F195" s="70" t="s">
+        <v>402</v>
+      </c>
+      <c r="G195" s="76">
+        <v>75</v>
+      </c>
+      <c r="H195" s="73"/>
+      <c r="I195" s="73"/>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="70" t="s">
+        <v>403</v>
+      </c>
+      <c r="B196" s="74">
+        <v>1905007</v>
+      </c>
+      <c r="C196" s="69" t="s">
+        <v>199</v>
+      </c>
+      <c r="D196" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="E196" s="70">
+        <v>75</v>
+      </c>
+      <c r="F196" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="G196" s="76">
+        <v>75</v>
+      </c>
+      <c r="H196" s="73"/>
+      <c r="I196" s="73"/>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="70" t="s">
+        <v>403</v>
+      </c>
+      <c r="B197" s="77">
+        <v>1905008</v>
+      </c>
+      <c r="C197" s="69" t="s">
+        <v>200</v>
+      </c>
+      <c r="D197" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="E197" s="70">
+        <v>75</v>
+      </c>
+      <c r="F197" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="G197" s="76">
+        <v>75</v>
+      </c>
+      <c r="H197" s="73"/>
+      <c r="I197" s="73"/>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" s="70" t="s">
+        <v>403</v>
+      </c>
+      <c r="B198" s="74">
+        <v>1905026</v>
+      </c>
+      <c r="C198" s="69" t="s">
+        <v>201</v>
+      </c>
+      <c r="D198" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="E198" s="70">
+        <v>75</v>
+      </c>
+      <c r="F198" s="70" t="s">
+        <v>400</v>
+      </c>
+      <c r="G198" s="76">
+        <v>75</v>
+      </c>
+      <c r="H198" s="73" t="s">
+        <v>186</v>
+      </c>
+      <c r="I198" s="73"/>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" s="70" t="s">
+        <v>403</v>
+      </c>
+      <c r="B199" s="79">
+        <v>1901029</v>
+      </c>
+      <c r="C199" s="80" t="s">
+        <v>396</v>
+      </c>
+      <c r="D199" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="E199" s="70">
         <v>40</v>
       </c>
-      <c r="F181" s="72" t="s">
-        <v>401</v>
-      </c>
-      <c r="G181" s="72">
-        <v>35</v>
-      </c>
-      <c r="H181" s="72"/>
-      <c r="I181" s="72"/>
-    </row>
-    <row r="182" spans="1:9">
-      <c r="A182" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="B182" s="69">
-        <v>198907</v>
-      </c>
-      <c r="C182" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="D182" s="72">
-        <v>1</v>
-      </c>
-      <c r="E182" s="72" t="s">
-        <v>173</v>
-      </c>
-      <c r="F182" s="72" t="s">
-        <v>401</v>
-      </c>
-      <c r="G182" s="72">
-        <v>35</v>
-      </c>
-      <c r="H182" s="72"/>
-      <c r="I182" s="72"/>
-    </row>
-    <row r="183" spans="1:9">
-      <c r="A183" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="B183" s="69">
-        <v>199909</v>
-      </c>
-      <c r="C183" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="D183" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="E183" s="72">
-        <v>18</v>
-      </c>
-      <c r="F183" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="G183" s="72">
-        <v>35</v>
-      </c>
-      <c r="H183" s="72"/>
-      <c r="I183" s="72"/>
-    </row>
-    <row r="184" spans="1:9">
-      <c r="A184" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="B184" s="69">
-        <v>198902</v>
-      </c>
-      <c r="C184" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="D184" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="E184" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="F184" s="72" t="s">
-        <v>401</v>
-      </c>
-      <c r="G184" s="72">
-        <v>35</v>
-      </c>
-      <c r="H184" s="72"/>
-      <c r="I184" s="72"/>
-    </row>
-    <row r="185" spans="1:9">
-      <c r="A185" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="B185" s="69">
-        <v>199915</v>
-      </c>
-      <c r="C185" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="D185" s="72" t="s">
-        <v>238</v>
-      </c>
-      <c r="E185" s="72">
-        <v>18</v>
-      </c>
-      <c r="F185" s="72" t="s">
-        <v>394</v>
-      </c>
-      <c r="G185" s="72">
-        <v>35</v>
-      </c>
-      <c r="H185" s="72"/>
-      <c r="I185" s="72"/>
-    </row>
-    <row r="186" spans="1:9">
-      <c r="A186" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="B186" s="84">
-        <v>1901036</v>
-      </c>
-      <c r="C186" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="D186" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="E186" s="72">
+      <c r="F199" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="G199" s="76">
+        <v>75</v>
+      </c>
+      <c r="H199" s="73"/>
+      <c r="I199" s="73"/>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" s="70" t="s">
+        <v>403</v>
+      </c>
+      <c r="B200" s="79">
+        <v>1901030</v>
+      </c>
+      <c r="C200" s="80" t="s">
+        <v>397</v>
+      </c>
+      <c r="D200" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="E200" s="70">
         <v>32</v>
       </c>
-      <c r="F186" s="72" t="s">
-        <v>407</v>
-      </c>
-      <c r="G186" s="72">
-        <v>51</v>
-      </c>
-      <c r="H186" s="72"/>
-      <c r="I186" s="72"/>
-    </row>
-    <row r="187" spans="1:9">
-      <c r="A187" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="B187" s="91">
-        <v>1905035</v>
-      </c>
-      <c r="C187" s="74" t="s">
-        <v>181</v>
-      </c>
-      <c r="D187" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="E187" s="73">
-        <v>40</v>
-      </c>
-      <c r="F187" s="73" t="s">
-        <v>401</v>
-      </c>
-      <c r="G187" s="73">
-        <v>51</v>
-      </c>
-      <c r="H187" s="75"/>
-      <c r="I187" s="75"/>
-    </row>
-    <row r="188" spans="1:9">
-      <c r="A188" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="B188" s="91">
-        <v>1905036</v>
-      </c>
-      <c r="C188" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="D188" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="E188" s="73">
-        <v>32</v>
-      </c>
-      <c r="F188" s="73" t="s">
-        <v>401</v>
-      </c>
-      <c r="G188" s="73">
-        <v>51</v>
-      </c>
-      <c r="H188" s="75"/>
-      <c r="I188" s="75"/>
-    </row>
-    <row r="189" spans="1:9">
-      <c r="A189" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="B189" s="76">
-        <v>1905046</v>
-      </c>
-      <c r="C189" s="71" t="s">
-        <v>187</v>
-      </c>
-      <c r="D189" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="E189" s="72">
-        <v>54</v>
-      </c>
-      <c r="F189" s="72" t="s">
-        <v>402</v>
-      </c>
-      <c r="G189" s="72">
-        <v>51</v>
-      </c>
-      <c r="H189" s="77"/>
-      <c r="I189" s="77"/>
-    </row>
-    <row r="190" spans="1:9">
-      <c r="A190" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="B190" s="76">
-        <v>1905047</v>
-      </c>
-      <c r="C190" s="71" t="s">
-        <v>188</v>
-      </c>
-      <c r="D190" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="E190" s="72">
-        <v>32</v>
-      </c>
-      <c r="F190" s="72" t="s">
-        <v>402</v>
-      </c>
-      <c r="G190" s="72">
-        <v>51</v>
-      </c>
-      <c r="H190" s="77"/>
-      <c r="I190" s="77"/>
-    </row>
-    <row r="191" spans="1:9">
-      <c r="A191" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="B191" s="85">
-        <v>1905025</v>
-      </c>
-      <c r="C191" s="71" t="s">
-        <v>191</v>
-      </c>
-      <c r="D191" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="E191" s="72">
-        <v>32</v>
-      </c>
-      <c r="F191" s="72" t="s">
-        <v>401</v>
-      </c>
-      <c r="G191" s="72">
-        <v>51</v>
-      </c>
-      <c r="H191" s="77" t="s">
-        <v>186</v>
-      </c>
-      <c r="I191" s="77"/>
-    </row>
-    <row r="192" spans="1:9">
-      <c r="A192" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="B192" s="76">
-        <v>1905029</v>
-      </c>
-      <c r="C192" s="71" t="s">
-        <v>192</v>
-      </c>
-      <c r="D192" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="E192" s="72">
-        <v>48</v>
-      </c>
-      <c r="F192" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="G192" s="72">
-        <v>51</v>
-      </c>
-      <c r="H192" s="77"/>
-      <c r="I192" s="77"/>
-    </row>
-    <row r="193" spans="1:9">
-      <c r="A193" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="B193" s="76">
-        <v>1905048</v>
-      </c>
-      <c r="C193" s="71" t="s">
-        <v>193</v>
-      </c>
-      <c r="D193" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="E193" s="72">
-        <v>48</v>
-      </c>
-      <c r="F193" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="G193" s="72">
-        <v>51</v>
-      </c>
-      <c r="H193" s="77"/>
-      <c r="I193" s="77"/>
-    </row>
-    <row r="194" spans="1:9">
-      <c r="A194" s="78" t="s">
-        <v>196</v>
-      </c>
-      <c r="B194" s="86">
-        <v>1905048</v>
-      </c>
-      <c r="C194" s="79" t="s">
-        <v>193</v>
-      </c>
-      <c r="D194" s="78" t="s">
-        <v>136</v>
-      </c>
-      <c r="E194" s="78">
-        <v>48</v>
-      </c>
-      <c r="F194" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="G194" s="81">
-        <v>36</v>
-      </c>
-      <c r="H194" s="80"/>
-      <c r="I194" s="80"/>
-    </row>
-    <row r="195" spans="1:9">
-      <c r="A195" s="78" t="s">
-        <v>196</v>
-      </c>
-      <c r="B195" s="87">
-        <v>1901028</v>
-      </c>
-      <c r="C195" s="82" t="s">
-        <v>395</v>
-      </c>
-      <c r="D195" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="E195" s="78">
-        <v>48</v>
-      </c>
-      <c r="F195" s="78" t="s">
-        <v>404</v>
-      </c>
-      <c r="G195" s="81">
-        <v>30</v>
-      </c>
-      <c r="H195" s="80"/>
-      <c r="I195" s="80"/>
-    </row>
-    <row r="196" spans="1:9">
-      <c r="A196" s="78" t="s">
-        <v>406</v>
-      </c>
-      <c r="B196" s="86">
-        <v>1901006</v>
-      </c>
-      <c r="C196" s="82" t="s">
-        <v>396</v>
-      </c>
-      <c r="D196" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="E196" s="78">
+      <c r="F200" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="G200" s="76">
         <v>75</v>
       </c>
-      <c r="F196" s="78" t="s">
-        <v>405</v>
-      </c>
-      <c r="G196" s="81">
-        <v>30</v>
-      </c>
-      <c r="H196" s="80"/>
-      <c r="I196" s="80"/>
-    </row>
-    <row r="197" spans="1:9">
-      <c r="A197" s="78" t="s">
-        <v>406</v>
-      </c>
-      <c r="B197" s="86">
-        <v>1901007</v>
-      </c>
-      <c r="C197" s="79" t="s">
-        <v>397</v>
-      </c>
-      <c r="D197" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="E197" s="78">
-        <v>75</v>
-      </c>
-      <c r="F197" s="78" t="s">
-        <v>405</v>
-      </c>
-      <c r="G197" s="81">
-        <v>30</v>
-      </c>
-      <c r="H197" s="80"/>
-      <c r="I197" s="80"/>
-    </row>
-    <row r="198" spans="1:9">
-      <c r="A198" s="72" t="s">
-        <v>406</v>
-      </c>
-      <c r="B198" s="76">
-        <v>1905007</v>
-      </c>
-      <c r="C198" s="71" t="s">
-        <v>199</v>
-      </c>
-      <c r="D198" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="E198" s="72">
-        <v>75</v>
-      </c>
-      <c r="F198" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="G198" s="70">
-        <v>75</v>
-      </c>
-      <c r="H198" s="77"/>
-      <c r="I198" s="77"/>
-    </row>
-    <row r="199" spans="1:9">
-      <c r="A199" s="72" t="s">
-        <v>406</v>
-      </c>
-      <c r="B199" s="88">
-        <v>1905008</v>
-      </c>
-      <c r="C199" s="71" t="s">
-        <v>200</v>
-      </c>
-      <c r="D199" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="E199" s="72">
-        <v>75</v>
-      </c>
-      <c r="F199" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="G199" s="70">
-        <v>35</v>
-      </c>
-      <c r="H199" s="77"/>
-      <c r="I199" s="77"/>
-    </row>
-    <row r="200" spans="1:9">
-      <c r="A200" s="72" t="s">
-        <v>406</v>
-      </c>
-      <c r="B200" s="76">
-        <v>1905026</v>
-      </c>
-      <c r="C200" s="71" t="s">
-        <v>201</v>
-      </c>
-      <c r="D200" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="E200" s="72">
-        <v>75</v>
-      </c>
-      <c r="F200" s="72" t="s">
-        <v>403</v>
-      </c>
-      <c r="G200" s="70">
-        <v>75</v>
-      </c>
-      <c r="H200" s="77" t="s">
-        <v>186</v>
-      </c>
-      <c r="I200" s="77"/>
-    </row>
-    <row r="201" spans="1:9">
-      <c r="A201" s="78" t="s">
-        <v>406</v>
-      </c>
-      <c r="B201" s="89">
-        <v>1901029</v>
-      </c>
-      <c r="C201" s="83" t="s">
-        <v>398</v>
-      </c>
-      <c r="D201" s="78" t="s">
-        <v>136</v>
-      </c>
-      <c r="E201" s="78">
-        <v>40</v>
-      </c>
-      <c r="F201" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="G201" s="81">
-        <v>30</v>
-      </c>
-      <c r="H201" s="80"/>
-      <c r="I201" s="80"/>
-    </row>
-    <row r="202" spans="1:9">
-      <c r="A202" s="78" t="s">
-        <v>406</v>
-      </c>
-      <c r="B202" s="89">
-        <v>1901030</v>
-      </c>
-      <c r="C202" s="83" t="s">
-        <v>399</v>
-      </c>
-      <c r="D202" s="78" t="s">
-        <v>136</v>
-      </c>
-      <c r="E202" s="78">
-        <v>32</v>
-      </c>
-      <c r="F202" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="G202" s="81">
-        <v>30</v>
-      </c>
-      <c r="H202" s="80"/>
-      <c r="I202" s="80"/>
-    </row>
-    <row r="203" spans="1:9">
-      <c r="A203" s="72" t="s">
-        <v>406</v>
-      </c>
-      <c r="B203" s="90">
-        <v>1900113</v>
-      </c>
-      <c r="C203" s="71" t="s">
-        <v>400</v>
-      </c>
-      <c r="D203" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="E203" s="72">
-        <v>68</v>
-      </c>
-      <c r="F203" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="G203" s="70">
-        <v>30</v>
-      </c>
-      <c r="H203" s="77"/>
-      <c r="I203" s="77"/>
+      <c r="H200" s="73"/>
+      <c r="I200" s="73"/>
     </row>
   </sheetData>
-  <sortState ref="A3:I195">
-    <sortCondition ref="B3:B195"/>
+  <sortState ref="A3:I193">
+    <sortCondition ref="B3:B193"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
@@ -8391,19 +8294,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="26">
       <c r="A2" s="6" t="s">
@@ -14629,20 +14532,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="26">
       <c r="A2" s="6" t="s">
